--- a/inst/extdata/phi_constants.xlsx
+++ b/inst/extdata/phi_constants.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA805BC8-4B03-534F-8FA3-8D5F4FE35A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26620" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="temp_calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>source</t>
   </si>
@@ -74,9 +83,6 @@
     <t>LTC.10.C</t>
   </si>
   <si>
-    <t>1990 Temp CEDA mean</t>
-  </si>
-  <si>
     <t>T_0 [C]</t>
   </si>
   <si>
@@ -87,9 +93,6 @@
   </si>
   <si>
     <t>T_0 [K]</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>HTH.600.C</t>
@@ -323,9 +326,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -393,7 +396,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,22 +678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -701,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -709,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -717,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -725,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -733,10 +736,10 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -744,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -753,22 +756,22 @@
         <v>0.8467020793849932</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="9">
         <f>temp_calcs!G3</f>
         <v>0.81746813717700162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -777,10 +780,10 @@
         <v>0.77445705533519227</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -789,34 +792,34 @@
         <v>0.7671410615091433</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9">
         <f>temp_calcs!G6</f>
         <v>0.74433512887860043</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9">
         <f>temp_calcs!G7</f>
         <v>0.6711332531638321</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -825,10 +828,10 @@
         <v>0.57342345688182428</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -837,10 +840,10 @@
         <v>0.49899677222367622</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -849,10 +852,10 @@
         <v>0.39311000739723134</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -861,22 +864,22 @@
         <v>0.23047032024654968</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="9">
         <f>temp_calcs!G12</f>
         <v>0.13807594176797244</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
@@ -885,22 +888,22 @@
         <v>0.11140337304657277</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9">
         <f>temp_calcs!G14</f>
         <v>3.4112229234180447E-2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -909,536 +912,536 @@
         <v>7.0633939607981588E-2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="9">
         <f>temp_calcs!G16</f>
         <v>0.114003420102603</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="B56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="B59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="B61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="B67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="B69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="B70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="B71" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="B75" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="B76" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="B77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="B78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="B79" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="B80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="B81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="B82" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="B83" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="B84" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="B85" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B84" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
@@ -1450,45 +1453,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="68.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="68.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1">
         <v>1600</v>
@@ -1514,15 +1517,15 @@
         <v>0.8467020793849932</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1">
         <v>1300</v>
@@ -1536,11 +1539,11 @@
         <v>1573.15</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G16" si="2">1-(E3/F3)</f>
+        <f t="shared" ref="G3:G13" si="2">1-(E3/F3)</f>
         <v>0.81746813717700162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -1566,7 +1569,7 @@
         <v>0.77445705533519227</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1">
         <v>960</v>
@@ -1592,15 +1595,15 @@
         <v>0.7671410615091433</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1">
         <v>850</v>
@@ -1618,15 +1621,15 @@
         <v>0.74433512887860043</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
@@ -1644,7 +1647,7 @@
         <v>0.6711332531638321</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1">
         <v>400</v>
@@ -1670,7 +1673,7 @@
         <v>0.57342345688182428</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
         <v>300</v>
@@ -1696,7 +1699,7 @@
         <v>0.49899677222367622</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
@@ -1722,7 +1725,7 @@
         <v>0.39311000739723134</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -1748,15 +1751,15 @@
         <v>0.23047032024654968</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1">
         <v>60</v>
@@ -1774,7 +1777,7 @@
         <v>0.13807594176797244</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -1800,15 +1803,15 @@
         <v>0.11140337304657277</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -1826,7 +1829,7 @@
         <v>3.4112229234180447E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -1852,15 +1855,15 @@
         <v>7.0633939607981588E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1">
         <v>-10</v>
@@ -1882,37 +1885,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/extdata/phi_constants.xlsx
+++ b/inst/extdata/phi_constants.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA805BC8-4B03-534F-8FA3-8D5F4FE35A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87971B74-B3AF-A04A-A19B-B72DB6398515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26620" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26620" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="constants" sheetId="1" r:id="rId1"/>
+    <sheet name="phi_constants" sheetId="1" r:id="rId1"/>
     <sheet name="temp_calcs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>source</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>See 'temp_calcs' sheet</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -681,9 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -695,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1456,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/phi_constants.xlsx
+++ b/inst/extdata/phi_constants.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87971B74-B3AF-A04A-A19B-B72DB6398515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26620" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="phi_constants" sheetId="1" r:id="rId1"/>
     <sheet name="temp_calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="Serrenho_2013" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="107">
   <si>
     <t>source</t>
   </si>
@@ -324,12 +315,39 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Food and feed</t>
+  </si>
+  <si>
+    <t>CHP and geothermal heat</t>
+  </si>
+  <si>
+    <t>Solar thermal heat</t>
+  </si>
+  <si>
+    <t>Combustible renewable</t>
+  </si>
+  <si>
+    <t>Coal products</t>
+  </si>
+  <si>
+    <t>Oil products</t>
+  </si>
+  <si>
+    <t>Serrenho et al (2013)</t>
+  </si>
+  <si>
+    <t>Serrenho (2013) -  PhD Thesis Useful Work as an Energy End-Use Accounting Method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -417,6 +435,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427886</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="247650"/>
+          <a:ext cx="5914286" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,20 +742,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="2" max="2" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -705,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -713,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -721,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -729,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -740,7 +803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -748,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -760,7 +823,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -772,7 +835,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -784,7 +847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -796,7 +859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -808,7 +871,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -820,7 +883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -832,7 +895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -844,7 +907,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -856,7 +919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -868,7 +931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -880,7 +943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
@@ -892,7 +955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -904,7 +967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -916,7 +979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -928,7 +991,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -936,31 +999,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -968,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -976,79 +1051,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B4</f>
+        <v>1.05</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B4</f>
+        <v>1.05</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1056,47 +1167,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
@@ -1104,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
@@ -1120,39 +1251,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B4</f>
+        <v>1.05</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>55</v>
       </c>
@@ -1160,39 +1307,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>60</v>
       </c>
@@ -1200,31 +1363,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B9</f>
+        <v>0.6</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B9</f>
+        <v>0.6</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>64</v>
       </c>
@@ -1232,55 +1407,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>71</v>
       </c>
@@ -1288,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>72</v>
       </c>
@@ -1296,23 +1495,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>75</v>
       </c>
@@ -1320,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>76</v>
       </c>
@@ -1328,71 +1535,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B10</f>
+        <v>0.25</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B2</f>
+        <v>1.06</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
@@ -1400,15 +1639,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B5</f>
+        <v>1.04</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>87</v>
       </c>
@@ -1416,23 +1659,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <f>Serrenho_2013!B3</f>
+        <v>1.06</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>90</v>
       </c>
@@ -1440,12 +1691,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="9">
-        <v>1</v>
+        <f>Serrenho_2013!B6</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1454,22 +1709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="68.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="68.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1518,7 +1773,7 @@
         <v>0.8467020793849932</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1799,7 @@
         <v>0.81746813717700162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1570,7 +1825,7 @@
         <v>0.77445705533519227</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1596,7 +1851,7 @@
         <v>0.7671410615091433</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1622,7 +1877,7 @@
         <v>0.74433512887860043</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1648,7 +1903,7 @@
         <v>0.6711332531638321</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1674,7 +1929,7 @@
         <v>0.57342345688182428</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1700,7 +1955,7 @@
         <v>0.49899677222367622</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1981,7 @@
         <v>0.39311000739723134</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1752,7 +2007,7 @@
         <v>0.23047032024654968</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1778,7 +2033,7 @@
         <v>0.13807594176797244</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +2059,7 @@
         <v>0.11140337304657277</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +2085,7 @@
         <v>3.4112229234180447E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +2111,7 @@
         <v>7.0633939607981588E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1886,4 +2141,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>